--- a/src/test/resources/DataSheet.xlsx
+++ b/src/test/resources/DataSheet.xlsx
@@ -5,25 +5,26 @@
   <fileSharing readOnlyRecommended="0" userName="anirb"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId4"/>
+    <sheet name="demo" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1679972633" val="1062" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1679972633" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1679972633" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1679972633"/>
+      <pm:revision xmlns:pm="smNativeData" day="1680061760" val="1062" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1680061760" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1680061760" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1680061760"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>a</t>
   </si>
@@ -32,6 +33,39 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>xpathValue</t>
+  </si>
+  <si>
+    <t>dataValue</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>//input[@name='firstName']</t>
+  </si>
+  <si>
+    <t>testA</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>//input[@name='lastName']</t>
+  </si>
+  <si>
+    <t>testB</t>
+  </si>
+  <si>
+    <t>showPassword</t>
+  </si>
+  <si>
+    <t>//input[@type='checkbox']</t>
   </si>
 </sst>
 </file>
@@ -56,7 +90,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1679972633" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1680061760" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -78,7 +112,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1679972633" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1680061760" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -100,7 +134,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679972633"/>
+          <pm:border xmlns:pm="smNativeData" id="1680061760"/>
         </ext>
       </extLst>
     </border>
@@ -119,7 +153,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1679972633"/>
+          <pm:border xmlns:pm="smNativeData" id="1680061760"/>
         </ext>
       </extLst>
     </border>
@@ -136,9 +170,12 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1679972633" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1680061760" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1680061760" count="1">
+        <pm:color name="Color 25" rgb="2A00FF"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -402,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -433,7 +470,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1679972633" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680061760" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -442,16 +479,102 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1679972633" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1679972633" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1679972633" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1679972633" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1680061760" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680061760" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1680061760" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1680061760" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1679972633" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680061760" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="1" max="1" width="20.378378" customWidth="1"/>
+    <col min="2" max="2" width="34.756757" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1680061760" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1680061760" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1680061760" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1680061760" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1680061760" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1680061760" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
